--- a/www/ig/fhir/annuaire/StructureDefinition-as-person.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-person.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-3</t>
+    <t>1.0.0-ballot-4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:19:17+00:00</t>
+    <t>2024-04-02T14:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ANS</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
     <t>Contact</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-person.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-person.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="442">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:41:29+00:00</t>
+    <t>2024-04-10T12:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr, monserviceclient.annuaire@esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: AsPersonProfile to MOS - PersonnePhysique</t>
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
@@ -272,6 +275,9 @@
 dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
+    <t>PersonnePhysique</t>
+  </si>
+  <si>
     <t>Person(classCode="PSN" and determinerCode="INST" and quantity="1")</t>
   </si>
   <si>
@@ -573,6 +579,9 @@
     <t>Resource.language</t>
   </si>
   <si>
+    <t>langueParlee</t>
+  </si>
+  <si>
     <t>Person.text</t>
   </si>
   <si>
@@ -647,6 +656,9 @@
     <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte de la nationalité du professionel (Person).</t>
   </si>
   <si>
+    <t>paysNationalite</t>
+  </si>
+  <si>
     <t>Person.extension:as-ext-person-birth-place</t>
   </si>
   <si>
@@ -663,6 +675,9 @@
     <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte du lieu de naissance du professionnel en tant que personne physique.</t>
   </si>
   <si>
+    <t>lieuNaissance</t>
+  </si>
+  <si>
     <t>Person.extension:as-ext-person-deceased-date-time</t>
   </si>
   <si>
@@ -679,6 +694,9 @@
     <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte de la date de décès du professionnel (Date of death of the Person if applicable).</t>
   </si>
   <si>
+    <t>dateDeces</t>
+  </si>
+  <si>
     <t>Person.modifierExtension</t>
   </si>
   <si>
@@ -723,7 +741,7 @@
     <t>Person.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {http://interopsante.org/fhir/StructureDefinition/FrHumanName}
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
 </t>
   </si>
   <si>
@@ -785,9 +803,6 @@
     <t>required</t>
   </si>
   <si>
-    <t>The use of a human name.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/name-use</t>
   </si>
   <si>
@@ -843,6 +858,9 @@
     <t>HumanName.family</t>
   </si>
   <si>
+    <t>nomUsage</t>
+  </si>
+  <si>
     <t>./part[partType = FAM]</t>
   </si>
   <si>
@@ -868,6 +886,9 @@
     <t>HumanName.given</t>
   </si>
   <si>
+    <t>prenomUsuel</t>
+  </si>
+  <si>
     <t>./part[partType = GIV]</t>
   </si>
   <si>
@@ -883,9 +904,6 @@
     <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Civilités des personnes physiques du RASS</t>
   </si>
   <si>
@@ -893,6 +911,9 @@
   </si>
   <si>
     <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>civilite</t>
   </si>
   <si>
     <t>./part[partType = PFX]</t>
@@ -938,20 +959,12 @@
     <t>Indicates the period of time when this name was valid for the named person.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Allows names to be placed in historical context.</t>
   </si>
   <si>
     <t>HumanName.period</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
@@ -961,7 +974,7 @@
     <t>Person.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {http://interopsante.org/fhir/StructureDefinition/FrContactPoint}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
 </t>
   </si>
   <si>
@@ -977,8 +990,8 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+    <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>TEL</t>
@@ -999,14 +1012,14 @@
     <t>emailType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://interopsante.org/fhir/StructureDefinition/FrContactPointEmailType}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type}
 </t>
   </si>
   <si>
     <t>Type of email | type de messagerie électronique</t>
   </si>
   <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Extension on the ContactPoint datatype. This extension allows to specify the type of mail used to contact the person (MSSsanté|Apicrypt|OSM|Autre).</t>
   </si>
   <si>
     <t>Person.telecom.system</t>
@@ -1021,14 +1034,14 @@
     <t>Telecommunications form for contact point.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system</t>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
   </si>
   <si>
     <t>ContactPoint.system</t>
   </si>
   <si>
-    <t>ele-1
-cpt-2</t>
+    <t xml:space="preserve">cpt-2
+</t>
   </si>
   <si>
     <t>./scheme</t>
@@ -1079,7 +1092,7 @@
     <t>Use of contact point.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use</t>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
   </si>
   <si>
     <t>ContactPoint.use</t>
@@ -1140,6 +1153,9 @@
     <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
   </si>
   <si>
+    <t>sexeAdministratif</t>
+  </si>
+  <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
   </si>
   <si>
@@ -1165,6 +1181,9 @@
     <t>Age of person drives many clinical processes, and is often used in performing identification of the person. Times are not included so as to not confuse things with potential timezone issues.</t>
   </si>
   <si>
+    <t>dateNaissance</t>
+  </si>
+  <si>
     <t>./birthTime</t>
   </si>
   <si>
@@ -1336,6 +1355,9 @@
   </si>
   <si>
     <t>Level of assurance that this link is associated with the target resource.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>The level of confidence that this link represents the same actual person, based on NIST Authentication Levels.</t>
@@ -1689,7 +1711,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM61"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1733,9 +1755,10 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="78.4375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="56.63671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="57.2265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="78.4375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="56.63671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1856,6 +1879,9 @@
       <c r="AM1" t="s" s="1">
         <v>75</v>
       </c>
+      <c r="AN1" t="s" s="1">
+        <v>76</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
@@ -1866,6675 +1892,6839 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>158</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>158</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>106</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="B19" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="C19" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>230</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>232</v>
+        <v>77</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>238</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>255</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>263</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>76</v>
+        <v>271</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>272</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>281</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>290</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>298</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>299</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>306</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>315</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>331</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>76</v>
+        <v>338</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>339</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>343</v>
+        <v>77</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>348</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>108</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>299</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>102</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>368</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>370</v>
+        <v>77</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>377</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>377</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>76</v>
+        <v>384</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>378</v>
+        <v>77</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>385</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>392</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>393</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>394</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>401</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>76</v>
+        <v>408</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>407</v>
+        <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>76</v>
+        <v>414</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>426</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>278</v>
+        <v>430</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>76</v>
+        <v>433</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>407</v>
+        <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>76</v>
+        <v>414</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="P59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>419</v>
+        <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>76</v>
+        <v>426</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>278</v>
+        <v>430</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>76</v>
+        <v>433</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM61">
+  <autoFilter ref="A1:AN61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-person.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-person.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-person.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-person.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2237" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="435">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T11:46:45+00:00</t>
+    <t>2025-04-14T13:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -272,7 +272,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PersonnePhysique</t>
@@ -322,341 +322,338 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Person.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Person.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Person.meta.extension:as-ext-data-trace</t>
+  </si>
+  <si>
+    <t>as-ext-data-trace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-data-trace}
+</t>
+  </si>
+  <si>
+    <t>DataTrace : Informe sur l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI).</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour tracer l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI)). Des études complémentaires vont être initiées pour envisager l'usage de la ressource Provenance ou meta.source.</t>
+  </si>
+  <si>
+    <t>Person.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Person.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Person.meta.source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Person.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Person.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Person.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Person.implicitRules</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Person.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>PersonnePhysique.langueParlee</t>
+  </si>
+  <si>
+    <t>Person.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Person.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Person.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Person.extension:as-ext-person-nationality</t>
+  </si>
+  <si>
+    <t>as-ext-person-nationality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-person-nationality}
+</t>
+  </si>
+  <si>
+    <t>AS Person Nationality Extension</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte de la nationalité du professionel (Person).</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Person.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Person.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Person.meta.extension:as-ext-data-trace</t>
-  </si>
-  <si>
-    <t>as-ext-data-trace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-data-trace}
-</t>
-  </si>
-  <si>
-    <t>DataTrace : Informe sur l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI).</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour tracer l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI)). Des études complémentaires vont être initiées pour envisager l'usage de la ressource Provenance ou meta.source</t>
-  </si>
-  <si>
-    <t>Person.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>Person.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Person.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Person.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Person.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
-    <t>Person.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Person.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Person.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>langueParlee</t>
-  </si>
-  <si>
-    <t>Person.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Person.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Person.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Person.extension:as-ext-person-nationality</t>
-  </si>
-  <si>
-    <t>as-ext-person-nationality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-person-nationality}
-</t>
-  </si>
-  <si>
-    <t>AS Person Nationality Extension</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte de la nationalité du professionel (Person).</t>
-  </si>
-  <si>
-    <t>paysNationalite</t>
+    <t>PersonnePhysique.paysNationalite</t>
   </si>
   <si>
     <t>Person.extension:as-ext-person-birth-place</t>
@@ -675,7 +672,7 @@
     <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte du lieu de naissance du professionnel en tant que personne physique.</t>
   </si>
   <si>
-    <t>lieuNaissance</t>
+    <t>PersonnePhysique.lieuNaissance</t>
   </si>
   <si>
     <t>Person.extension:as-ext-person-deceased-date-time</t>
@@ -694,7 +691,7 @@
     <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte de la date de décès du professionnel (Date of death of the Person if applicable).</t>
   </si>
   <si>
-    <t>dateDeces</t>
+    <t>PersonnePhysique.dateDeces</t>
   </si>
   <si>
     <t>Person.modifierExtension</t>
@@ -748,19 +745,19 @@
     <t>Nom issu de l’état-civil.</t>
   </si>
   <si>
-    <t>A human's name with the ability to identify parts and usage.</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+    <t>A name associated with the person.</t>
+  </si>
+  <si>
+    <t>Person may have multiple names with different uses or applicable periods.</t>
   </si>
   <si>
     <t>Need to be able to track the person by multiple names. Examples are your official name and a partner name.</t>
   </si>
   <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>XPN</t>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>PID-5, PID-9</t>
   </si>
   <si>
     <t>Person.name.id</t>
@@ -858,7 +855,7 @@
     <t>HumanName.family</t>
   </si>
   <si>
-    <t>nomUsage</t>
+    <t>PersonnePhysique.nomUsage</t>
   </si>
   <si>
     <t>./part[partType = FAM]</t>
@@ -886,7 +883,7 @@
     <t>HumanName.given</t>
   </si>
   <si>
-    <t>prenomUsuel</t>
+    <t>PersonnePhysique.prenomUsuel</t>
   </si>
   <si>
     <t>./part[partType = GIV]</t>
@@ -913,7 +910,7 @@
     <t>HumanName.prefix</t>
   </si>
   <si>
-    <t>civilite</t>
+    <t>PersonnePhysique.civilite</t>
   </si>
   <si>
     <t>./part[partType = PFX]</t>
@@ -981,7 +978,7 @@
     <t>Différentes instances pour les téléphones, la télécopie et l’adresse mail.</t>
   </si>
   <si>
-    <t>Details for all kinds of technology mediated contact points for a person or organization, including telephone, email, etc.</t>
+    <t>A contact detail for the person, e.g. a telephone number or an email address.</t>
   </si>
   <si>
     <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification.</t>
@@ -990,14 +987,10 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
-    <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
-  </si>
-  <si>
-    <t>TEL</t>
-  </si>
-  <si>
-    <t>XTN</t>
+    <t>./telecom</t>
+  </si>
+  <si>
+    <t>PID-13, PID-14</t>
   </si>
   <si>
     <t>Person.telecom.id</t>
@@ -1153,7 +1146,7 @@
     <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.1</t>
   </si>
   <si>
-    <t>sexeAdministratif</t>
+    <t>PersonnePhysique.sexeAdministratif</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
@@ -1181,7 +1174,7 @@
     <t>Age of person drives many clinical processes, and is often used in performing identification of the person. Times are not included so as to not confuse things with potential timezone issues.</t>
   </si>
   <si>
-    <t>dateNaissance</t>
+    <t>PersonnePhysique.dateNaissance</t>
   </si>
   <si>
     <t>./birthTime</t>
@@ -1228,13 +1221,6 @@
     <t>An image that can be displayed as a thumbnail of the person to enhance the identification of the individual.</t>
   </si>
   <si>
-    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
-  </si>
-  <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/desc</t>
   </si>
   <si>
@@ -1254,14 +1240,7 @@
     <t>The organization that is the custodian of the person record.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Need to know who recognizes this person record, manages and updates it.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>scoper</t>
@@ -1355,9 +1334,6 @@
   </si>
   <si>
     <t>Level of assurance that this link is associated with the target resource.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>The level of confidence that this link represents the same actual person, based on NIST Authentication Levels.</t>
@@ -1758,7 +1734,7 @@
     <col min="37" max="37" width="57.2265625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="78.4375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="56.63671875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="56.17578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2205,16 +2181,16 @@
         <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>77</v>
@@ -2225,10 +2201,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2251,13 +2227,13 @@
         <v>77</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2308,7 +2284,7 @@
         <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -2326,7 +2302,7 @@
         <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>77</v>
@@ -2337,14 +2313,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2363,16 +2339,16 @@
         <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2410,19 +2386,19 @@
         <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
@@ -2431,16 +2407,16 @@
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>77</v>
@@ -2451,13 +2427,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>77</v>
@@ -2479,13 +2455,13 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -2536,7 +2512,7 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -2545,10 +2521,10 @@
         <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>77</v>
@@ -2565,10 +2541,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2594,13 +2570,13 @@
         <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2650,7 +2626,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -2659,16 +2635,16 @@
         <v>88</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ8" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>77</v>
@@ -2679,10 +2655,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2705,16 +2681,16 @@
         <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2764,7 +2740,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2773,16 +2749,16 @@
         <v>88</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>77</v>
@@ -2793,10 +2769,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2819,16 +2795,16 @@
         <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2878,7 +2854,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2887,16 +2863,16 @@
         <v>88</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>77</v>
@@ -2907,10 +2883,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2933,16 +2909,16 @@
         <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2992,7 +2968,7 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3001,16 +2977,16 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -3021,10 +2997,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3047,16 +3023,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3082,31 +3058,31 @@
         <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="Z12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3115,30 +3091,30 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3161,16 +3137,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3196,13 +3172,13 @@
         <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>77</v>
@@ -3220,7 +3196,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3229,30 +3205,30 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3275,16 +3251,16 @@
         <v>89</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3334,7 +3310,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3343,16 +3319,16 @@
         <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3363,10 +3339,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3389,16 +3365,16 @@
         <v>77</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3424,13 +3400,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3448,7 +3424,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3457,16 +3433,16 @@
         <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK15" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3477,14 +3453,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3503,16 +3479,16 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3562,7 +3538,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3571,16 +3547,16 @@
         <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ16" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3591,14 +3567,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3617,16 +3593,16 @@
         <v>77</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3676,7 +3652,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3694,7 +3670,7 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3705,14 +3681,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3731,17 +3707,15 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3778,19 +3752,17 @@
         <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC18" s="2"/>
+      <c r="AD18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC18" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3799,16 +3771,16 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3819,13 +3791,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>77</v>
@@ -3847,13 +3819,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3904,7 +3876,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3913,13 +3885,13 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -3933,13 +3905,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3961,13 +3933,13 @@
         <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4018,7 +3990,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4027,13 +3999,13 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4047,13 +4019,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>77</v>
@@ -4075,13 +4047,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4132,7 +4104,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4141,13 +4113,13 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4161,14 +4133,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4187,19 +4159,19 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4236,19 +4208,19 @@
         <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4257,16 +4229,16 @@
         <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4277,10 +4249,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4303,17 +4275,17 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4362,7 +4334,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4371,30 +4343,30 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4414,22 +4386,22 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4478,7 +4450,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4487,30 +4459,30 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4533,13 +4505,13 @@
         <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4590,7 +4562,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4608,7 +4580,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4619,14 +4591,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4645,16 +4617,16 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4692,19 +4664,19 @@
         <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4716,13 +4688,13 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4733,13 +4705,13 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C27" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>77</v>
@@ -4761,13 +4733,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4818,7 +4790,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4830,7 +4802,7 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>77</v>
@@ -4847,10 +4819,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4873,19 +4845,19 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4910,29 +4882,29 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4944,27 +4916,27 @@
         <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>255</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4987,19 +4959,19 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
@@ -5048,7 +5020,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5060,31 +5032,31 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>263</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5103,16 +5075,16 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5162,7 +5134,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5174,31 +5146,31 @@
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5217,16 +5189,16 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5276,7 +5248,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5288,27 +5260,27 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>281</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5331,13 +5303,13 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5364,31 +5336,31 @@
         <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Z32" t="s" s="2">
+      <c r="AA32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5400,27 +5372,27 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5443,13 +5415,13 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5476,31 +5448,31 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Z33" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Z33" t="s" s="2">
+      <c r="AA33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5512,27 +5484,27 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>298</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5555,17 +5527,17 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5614,7 +5586,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5626,27 +5598,27 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>306</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5666,22 +5638,22 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5730,7 +5702,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5739,30 +5711,30 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>315</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5785,13 +5757,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5842,7 +5814,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5860,7 +5832,7 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5871,14 +5843,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5897,16 +5869,16 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5944,19 +5916,19 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC37" t="s" s="2">
+      <c r="AF37" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5968,13 +5940,13 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -5985,13 +5957,13 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="C38" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -6001,7 +5973,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -6013,13 +5985,13 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6070,7 +6042,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6082,7 +6054,7 @@
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
@@ -6099,10 +6071,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6125,13 +6097,13 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6158,31 +6130,31 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6191,30 +6163,30 @@
         <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>331</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6237,19 +6209,19 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6298,7 +6270,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6310,27 +6282,27 @@
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6353,19 +6325,19 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6390,31 +6362,31 @@
         <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6426,27 +6398,27 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6469,16 +6441,16 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6528,7 +6500,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6540,27 +6512,27 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6583,13 +6555,13 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6640,7 +6612,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6652,27 +6624,27 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>102</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6695,19 +6667,19 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6732,13 +6704,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6756,7 +6728,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6765,30 +6737,30 @@
         <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK44" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6811,19 +6783,19 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6872,7 +6844,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6881,30 +6853,30 @@
         <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK45" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>377</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6927,19 +6899,19 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6988,7 +6960,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6997,30 +6969,30 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ46" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7043,17 +7015,15 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>390</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7102,7 +7072,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7111,30 +7081,30 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7157,19 +7127,17 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7218,7 +7186,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7227,16 +7195,16 @@
         <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>400</v>
-      </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7247,10 +7215,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7273,17 +7241,17 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7332,7 +7300,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7341,19 +7309,19 @@
         <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7361,10 +7329,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7387,13 +7355,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7432,17 +7400,17 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7451,16 +7419,16 @@
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ50" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7471,10 +7439,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7497,13 +7465,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7554,7 +7522,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7572,7 +7540,7 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7583,14 +7551,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7609,16 +7577,16 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7656,19 +7624,19 @@
         <v>77</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7677,16 +7645,16 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
@@ -7697,14 +7665,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7723,19 +7691,19 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7784,7 +7752,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7793,16 +7761,16 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>77</v>
@@ -7813,10 +7781,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7839,17 +7807,15 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7898,7 +7864,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>88</v>
@@ -7907,16 +7873,16 @@
         <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>400</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7927,10 +7893,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7953,17 +7919,15 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7988,13 +7952,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8012,7 +7976,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8021,16 +7985,16 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ55" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8041,13 +8005,13 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>77</v>
@@ -8069,13 +8033,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8126,7 +8090,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8135,16 +8099,16 @@
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ56" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8155,10 +8119,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8181,13 +8145,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8238,7 +8202,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8256,7 +8220,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8267,14 +8231,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8293,16 +8257,16 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8340,19 +8304,19 @@
         <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF58" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8361,16 +8325,16 @@
         <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8381,14 +8345,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8407,19 +8371,19 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8468,7 +8432,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8477,16 +8441,16 @@
         <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
@@ -8497,10 +8461,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8523,17 +8487,15 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8582,7 +8544,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>88</v>
@@ -8591,16 +8553,16 @@
         <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>400</v>
-      </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8611,10 +8573,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8637,17 +8599,15 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8672,13 +8632,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -8696,7 +8656,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8705,16 +8665,16 @@
         <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
